--- a/Todays_weather.xlsx
+++ b/Todays_weather.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Today's weather" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,54 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>bhopal</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Sky</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>bhopal</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>23°C</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Tuesday 9:10 pm</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cloudy</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ल</t>
         </is>
       </c>
     </row>
